--- a/resources/data-to-proceed.xlsx
+++ b/resources/data-to-proceed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Nama</t>
   </si>
@@ -86,120 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mau daftar tapi selalu tampil keterangan "tidak ada data keluarga yang belum didaftarkan, silahkanmasukkan nik lainnya"..... Berulang dan selalu begitu dr nik kepala keluarga sampai anak trus mau daftar gimana di masa seperti ini .........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tyas akusara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sementara 3 dulu, kartu bpjs nya baru punya anak² yang jadi. itu jg lama banget baru jadi, punyaku sama suami blm jadi jg smp sekarang. kalo ke kantor bpjs katanya dikirim via pos tp nyatanya smp sekarang belum dikirim jg pdhal udah lama banget...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andre nugroho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplikasi ini buat apa ya? Lebih baik aplikasi ini dihapus aja karena g ada gunanya saya sudah terdaftar 4 tahun lalu setiap mau login dianggap belum terdaftar maksudnya apa??? Ikut2an buat aplikasi android biar dibilang keren padahal aplikasi sampah😂😂 ini aplikasi buat apa...😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ryo saeba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harapannya dapat membantu untuk pindah kelas, ternyata malah ga berfungsi sama sekali, mau masukin no kartu ga bisa, sangat mengecewakan, ujung2nya tetap terpaksa harus datang langsung kekantor BPJS terdekat, ga usah diinstall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Andiansyah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoax .... Sudh 100x coba masukan data.. Baru cek No NIK udah tidak bisa... Mau pergi ke Kantor Cabang Jauh lebih dari 100KM ... Dari rumah... Kog Aplikasi tidak merespon ya jika salah satu dari keluarga yang tercatat dalam KK itu terdaftar di Program BPJS... Aplikasi Sangat Jadul... Di perbaharui lah Programnya.. SAYA KECEWA DENGAN PELAYANAN NYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asih margii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hai kak, Sudah bbrpa kali tidak bisa login aplikasi.,setelah update pun tidak bisa.. Sebenarnya keberadaan aplikasi bisa mempermudah,, klo gak bisa masuk sama aja boong.. Ternyata baca review hampir semua permasalahan sama., tolong di perbaiki sistemnya ya kak..semoga bisa cepat solved..thanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svendriyati 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohon supaya Aplikasi Konsekuen: Skrining Mandiri Covid-19 sudah saya lakukan 19 Mei 2020, tapi sampai sekarang aplikasi meminta untuk Skrining Mandiri Covid-19 karena 01/05/2020 belum Skrining Mandiri. Saya sudah memberi saran pada laporan aplikasi, namun sampai saat ini tidak berubah. Kemudian setiap akan cek "catatan pembayaran" selalu berhenti automatis. Saya juga sudah kirim saran, tetapi tidak ada perubahan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dina Nur Aini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohon di jaman secanggih ini jangan ada segudang persoalan mau akses ke aplikasi JKN mobile khususnya ,kalau memang pihak2 yg terkait SDH membuka kemudahan melalui aplikasi mengapa selalu aplikasi itu sendiri yang masih terus berkendala......tak mudah di akses contohnya tunjukan kalau kita ini bangsa yang benar2 baik.......dan benar2 mau maju.......😠😡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ahmad madani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohon bantuannya. Ketika saya update, akun saya keluar otomatis (log out). Ketika saya login tidak bisa,muncul notif tidak cocok antara user name dan password. Ketika saya klik lupa password memasukan email dan nomor kartu, muncul notif tidak sesuai dengan sistem. Mohon bantuannya. Bagaimana bisa login kembali ke apps mobile jkn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veronica Diana Elysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untuk yg di tanggung perusahaan/instansi bolehlah pakai yg naik 100% karna sudah jelas perusahaan/instansi ada income(pemasukan). Tp untuk masyarakat yg tdk terkait diperusaan/instansi, dimohon tarif yg lama sebelum naik 100% karna untk harian belum tentu ada income(pemasukan). Dimohon untuk bijak menanggapi keluhan masyarakat, terima kasih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipung Galih Aninditya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selalu gagal saat daftar online. Saat memasukan email pasti gagal, ada pemberitahuan "Gagal kirim kode aktivasi pendftaran melalui email, silahkan coba kembali." Mohon bantuannya. Saya sudah mencoba semua email baik gmail, hotmail dan yahoo. (Fixed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2d Traveling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harusnya aplikasi itu memudahkan, bukan malah membingungkan!. Update kelas di menu ada to ga bisa dibuka, mau print kartu, kartunya ga bisa dibuka, ini aplikasi apa apaan, ganti aja yg lebih bagus lagi, kan d Indonesia banyak orang pintar kenapa bikin aplikasi yg seperti ini, sangat kecewa, aplikasi hanya sekedar nama namun tak berguna, bayar tiap bulan to aplikasinya aja amburadul ga karuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuli Faiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susah pake aplikasinya,dulu sudah terdaftar tapi gak pernah dipake,pas mau pake lagi jadi ribet,login gak bisa katanya belum terdaftar,eh mau daftar udah ngisi data lengkap mau register gak bisa juga,katanya sudah terdaftar disuruh login,gimana sih gak jelas,kecewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aria Adi Purnama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIS saya tdk bisa di gunakan ada keterangan "keluar atas kemauan sendiri" lah padahal aku ga pernah lakuin hal itu, di tpt kerja juga ga dapat fasilitas itu tp kenapa ada keterangan keluar atas kemauan sendiri kan aneh!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bli Kadek chanel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenapa aplikasi ini sering eror dan gak bisa di buka,dan selalu minta di perbaharui,tapi setelah di perbaharui hasilnya sama saja,aplikasi sampah,tetapi petugas di kantor bpjs selalu menyuruh download apk ini untuk mempermudahkan pelayanan,akan tetapi apknya benar2 sampah..bukannya mudah malah semakin susah..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy Sweety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KECEWA BANGET SAMA JKN MOBILE..TIAP MAU log in,SELalu muncul kalimat "No kartu anda blm terdaftar"gitu kita daftar,muncul kalimat"no ini sudah terdaftar,silakan log in"...ini mana yg bener sih...sy sudah bayar Lo...trus bgmn caranya gunakan APK ini jika sy mau berobat? Apk nya aza susah banget utk log in,supaya sy tau gmn status sy,sbb sy gk pegang kartu nya Krn daftarnya online...tolong donk bantu...jgn hny nuntut haknya aza...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tri Wahyuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada apa dengan app JKN mobile saya? Sdh 2bln saya tak bs login? Disitu tertulis no.anda blm terdaftar? Atau "permintaan anda tak bs diproses...?? Biasanya jg saya melakukan pembayaran tagihan via tfr bri, tp dr bln lalu pun tak bs? Mohon penjelasannya..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maju Mapan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak bisa ngecek histori pembayaran yang sudah dilakukan. Tolong ditampilkan histori pembayaran, Saya sudah bayar selama 1 tahun (s/d April 2020), saya mau cek tidak bisa, sementara tagihan saya utk Mei 2020 tidak sesuai tarif, Mohon penjelasannya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fera Fth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenapa tidak bisa digunakan? Dalam artian saya tidak pernah daftar bpjs tp pas daftar malah tertulis sudah daftar semua. Trus coba isi yg sudah daftar tapi tgl lahir tertulis tidak cocok. Padahal ttl saya sudah benar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edi Wibowo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konco podo menjauh. sedulur gak mau didekatin. apalagi ditumpangin. sodara kandung yg kaya raya malah terang terangan mutus persaudaraan. apa tumon. salah apa saya. hanya karena saya jatuh miskin. dulu waktu sy sukses. mana inget mereka. betapa sy gak eman2 bagi2 makanan. bagi2 duit. berbagi rejeki. skrg ketika usaha sy jatuh. gak ada lagi yg peduli. semoga Republik ini tetap berdiri kokoh. dan membantu rakyat miskin seperti saya. alhamdulillah sy tdk dapat BLT. ini ulah Kepala Desa yg pilih2.</t>
   </si>
 </sst>
 </file>
@@ -387,16 +273,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
@@ -500,177 +386,103 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
